--- a/WorkBot/refactor/data/orders/Hillcrest Dairy/Hillcrest Dairy_Collegetown_2025-09-19.xlsx
+++ b/WorkBot/refactor/data/orders/Hillcrest Dairy/Hillcrest Dairy_Collegetown_2025-09-19.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>643.20</t>
+          <t>804.00</t>
         </is>
       </c>
     </row>
